--- a/results/CalculsBourses/2024_Bourses.xlsx
+++ b/results/CalculsBourses/2024_Bourses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunogauthier/Documents/guide2024/results/CalculsBourses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCD754A-5525-AD42-9421-497C4BD82792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488B1E3-8853-3446-BBD5-F2A422808B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27860" yWindow="3100" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,76 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,6 +440,77 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F1BACBB-24F8-7640-A112-F7E0953B6AAF}" name="Tableau1" displayName="Tableau1" ref="A1:P1048576" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:P1048576" xr:uid="{5F1BACBB-24F8-7640-A112-F7E0953B6AAF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P1048576">
+    <sortCondition descending="1" ref="P1:P1048576"/>
+  </sortState>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{73DD96EA-03E3-5046-A0CA-F39B4C4CFF05}" name="Bib"/>
+    <tableColumn id="2" xr3:uid="{7A1F7763-E7C3-E74E-9DB8-C7A33DCEAB33}" name="Coureur"/>
+    <tableColumn id="3" xr3:uid="{52A9A879-09F1-2146-A993-99CFBC913553}" name="Equipe"/>
+    <tableColumn id="4" xr3:uid="{76AD9E46-9FFB-8140-9645-3D2555CC62FC}" name="E1"/>
+    <tableColumn id="5" xr3:uid="{2128FBEF-4896-3F46-99EC-02ECDF3D664D}" name="E2"/>
+    <tableColumn id="6" xr3:uid="{C8BC3F2A-940C-8B4B-95F2-5D29412AE675}" name="E3"/>
+    <tableColumn id="7" xr3:uid="{8995865F-766B-1A41-9BBB-717C712B3EDC}" name="E4"/>
+    <tableColumn id="8" xr3:uid="{EC8F48C9-2CD7-9942-B4CA-F5D7008B3B57}" name="E5"/>
+    <tableColumn id="9" xr3:uid="{6E560CBA-F50F-984B-A4C4-EB67E0C033D7}" name="E6"/>
+    <tableColumn id="10" xr3:uid="{875947AE-BA91-3A42-8664-FFA636FAB733}" name="E7"/>
+    <tableColumn id="11" xr3:uid="{6C4DCB24-A664-944C-9A9F-18E4937AA5B5}" name="General"/>
+    <tableColumn id="12" xr3:uid="{325EB82F-27AB-E742-ACE3-62CC3A727670}" name="Points"/>
+    <tableColumn id="13" xr3:uid="{5C255912-E8BD-5D48-A4A1-EED2B105824C}" name="GPM/KOM"/>
+    <tableColumn id="14" xr3:uid="{8C5F651D-8CAE-AA4D-A916-65A1428F6F90}" name="Jeune"/>
+    <tableColumn id="15" xr3:uid="{A0455307-F5BD-7B47-AD38-E9B10D59C0A2}" name="Abitibien"/>
+    <tableColumn id="16" xr3:uid="{6867D2D2-10D8-9946-8BC9-12A05D4D5C5E}" name="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5EE98591-1C01-B44A-90E8-E96A8E431B67}" name="Tableau2" displayName="Tableau2" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G1048576" xr:uid="{5EE98591-1C01-B44A-90E8-E96A8E431B67}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{517EA0B6-90AC-7C40-B282-0554034A9DC6}" name="Detail"/>
+    <tableColumn id="2" xr3:uid="{3E380228-19DC-D84E-BF40-AFC4A607C025}" name="Etape"/>
+    <tableColumn id="3" xr3:uid="{DBE9D40C-A0BA-E242-B0E3-6036AA88F072}" name="Sprint"/>
+    <tableColumn id="4" xr3:uid="{5B139327-2EDE-C84D-A000-43C305E7133E}" name="Bourse"/>
+    <tableColumn id="5" xr3:uid="{B7E8EDB3-47A8-8747-BF6F-0BD47543AC6A}" name="Bib"/>
+    <tableColumn id="6" xr3:uid="{E661B2B4-FA8F-7C46-B639-3DAAC75DA956}" name="Coureur"/>
+    <tableColumn id="7" xr3:uid="{3A949B32-D2E2-8E46-8B79-D1E46662C906}" name="Equipe"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3289A77-0D57-764C-BD7B-6D287F44F1C6}" name="Tableau3" displayName="Tableau3" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C1048576" xr:uid="{A3289A77-0D57-764C-BD7B-6D287F44F1C6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{59D3DD5D-696A-7844-9A47-8E190AC2F38A}" name="Equipe"/>
+    <tableColumn id="2" xr3:uid="{B9599304-94F1-F04C-BD8D-648C9D54F0B0}" name="Position"/>
+    <tableColumn id="3" xr3:uid="{28C83631-C480-F742-A125-56AB96CF2837}" name="BourseEquipe"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B4BDBBD-3F95-3C44-BF62-A3059DBE4C02}" name="Tableau4" displayName="Tableau4" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F1048576" xr:uid="{6B4BDBBD-3F95-3C44-BF62-A3059DBE4C02}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{895A3F8D-9A00-4544-88DB-A7554CAB7F70}" name="Equipe"/>
+    <tableColumn id="2" xr3:uid="{64AF3269-912C-AF4E-BB13-C7E11FEEE736}" name="BourseMaire"/>
+    <tableColumn id="3" xr3:uid="{4C06E7BD-CF5B-1249-8B3A-35B34B6704BB}" name="BoursesIndiv"/>
+    <tableColumn id="4" xr3:uid="{E6E9BF04-551B-D441-89DE-DA2D2EDBF359}" name="BourseEquipe"/>
+    <tableColumn id="5" xr3:uid="{565F83A5-6A21-5D41-9A2B-B40683AA3B52}" name="Total"/>
+    <tableColumn id="6" xr3:uid="{0CDDE6BB-4BC2-7A48-AD08-FA94B7CDA8CF}" name="TotalSansMaire"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -692,22 +832,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5.5" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.5" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1762,34 +1902,34 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="J22">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1812,34 +1952,34 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>90</v>
+      </c>
+      <c r="J23">
         <v>75</v>
-      </c>
-      <c r="E23">
-        <v>75</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <v>30</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2012,16 +2152,16 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2042,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2062,16 +2202,16 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D28">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2092,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2162,16 +2302,16 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2180,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2212,13 +2352,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2230,16 +2370,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>75</v>
-      </c>
-      <c r="J31">
-        <v>30</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2262,16 +2402,16 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J32">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3012,16 +3152,16 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3039,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3062,16 +3202,16 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3089,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3312,6 +3452,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3319,17 +3462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3612,6 +3755,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3619,15 +3765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3676,6 +3822,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3683,18 +3832,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3999,5 +4148,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>